--- a/Documents/Workload Distribution.xlsx
+++ b/Documents/Workload Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Firesoft\Documents\Oh_Snap\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE993E-1896-41EE-881B-6DF515222D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C1D36-EC91-4439-B93B-A0A6EF8F9CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{B4167EC2-0984-430A-8971-627379403450}"/>
+    <workbookView minimized="1" xWindow="1886" yWindow="1886" windowWidth="16457" windowHeight="8425" xr2:uid="{B4167EC2-0984-430A-8971-627379403450}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -202,8 +202,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +527,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -583,13 +581,6 @@
         <v>3</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -617,10 +608,6 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -646,7 +633,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -721,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="1">
         <v>11</v>
@@ -797,12 +784,12 @@
         <v>11</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="1">
         <f>K6+K7</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1">
         <f>L6+L7</f>
@@ -816,9 +803,9 @@
         <f>N6+N7</f>
         <v>42</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="1">
         <f>K8+L8+M8+N8</f>
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -844,22 +831,22 @@
         <v>11</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1">
         <f>20/O8</f>
-        <v>0.16</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="L9" s="1">
         <f>14/O8</f>
-        <v>0.112</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M9" s="1">
         <f>M8/O8</f>
-        <v>0.39200000000000002</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N9" s="1">
         <f>N8/O8</f>
-        <v>0.33600000000000002</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -915,22 +902,22 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="1"/>
